--- a/sources/Course Memo_Spring 2023_ver05_10.01.23_updated by Serik M.xlsx
+++ b/sources/Course Memo_Spring 2023_ver05_10.01.23_updated by Serik M.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneku16\ScheduleGenerator\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16684E3A-0814-4C6D-B549-B2E1DEA2478D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5D8A7-323C-49D6-9FAB-5EA3E2F73A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2966C313-9ED0-4D1C-A2BE-A20E4734B1E8}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{2966C313-9ED0-4D1C-A2BE-A20E4734B1E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring 2023" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spring 2023'!$A$1:$O$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spring 2023'!$A$1:$O$62</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -1102,13 +1102,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DF8E8B-15FE-4CCB-BA5A-27803428FDBA}">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,136 +1445,158 @@
       <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="A9" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A10" s="30" t="s">
         <v>56</v>
       </c>
+      <c r="B10" s="13">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="20">
+        <v>6</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="17">
+        <v>16</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="B11" s="13">
-        <v>1002</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20">
-        <v>6</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13">
+        <v>6</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="17">
         <v>16</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="5"/>
+      <c r="M11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B12" s="13">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="13">
-        <v>6</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20">
+        <v>6</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="K12" s="17">
         <v>16</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>93</v>
+      <c r="M12" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="13">
-        <v>1052</v>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1015</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="20">
-        <v>6</v>
-      </c>
-      <c r="F13" s="20"/>
+      <c r="E13" s="13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="23" t="s">
         <v>16</v>
       </c>
@@ -1582,38 +1604,38 @@
         <v>44</v>
       </c>
       <c r="I13" s="23"/>
-      <c r="J13" s="18" t="s">
-        <v>45</v>
+      <c r="J13" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K13" s="17">
         <v>16</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="20">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="13">
-        <v>6</v>
-      </c>
-      <c r="F14" s="13"/>
+      <c r="E14" s="20">
+        <v>6</v>
+      </c>
+      <c r="F14" s="20"/>
       <c r="G14" s="23" t="s">
         <v>16</v>
       </c>
@@ -1621,7 +1643,7 @@
         <v>44</v>
       </c>
       <c r="I14" s="23"/>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="17">
@@ -1634,17 +1656,17 @@
         <v>94</v>
       </c>
       <c r="N14" s="22"/>
-      <c r="O14" s="21"/>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="20">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>10</v>
@@ -1675,24 +1697,24 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="20">
-        <v>1017</v>
+      <c r="B16" s="13">
+        <v>2042</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="20">
-        <v>6</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="23" t="s">
+      <c r="E16" s="13">
+        <v>6</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="23" t="s">
@@ -1708,27 +1730,27 @@
       <c r="L16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
+      <c r="M16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="13">
-        <v>2042</v>
+        <v>1080</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="17" t="s">
@@ -1738,84 +1760,106 @@
         <v>44</v>
       </c>
       <c r="I17" s="23"/>
-      <c r="J17" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="J17" s="18"/>
       <c r="K17" s="17">
         <v>16</v>
       </c>
-      <c r="L17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>107</v>
+      <c r="L17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>52</v>
+    <row r="18" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="13">
-        <v>1080</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="20" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="K18" s="17">
         <v>16</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N18" s="12"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="12"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="13">
+        <v>6</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="17">
+        <v>16</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="N19" s="12"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="13">
-        <v>3082</v>
+        <v>2041</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>10</v>
@@ -1832,32 +1876,37 @@
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K20" s="17">
         <v>16</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="5"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="41"/>
     </row>
     <row r="21" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>50</v>
+      <c r="A21" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="B21" s="13">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E21" s="13">
         <v>6</v>
@@ -1871,7 +1920,7 @@
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K21" s="17">
         <v>16</v>
@@ -1880,72 +1929,73 @@
         <v>27</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="13">
-        <v>2041</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="13">
-        <v>6</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="17" t="s">
+    <row r="22" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="23">
+        <v>1003</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="19">
+        <v>4</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="17">
-        <v>16</v>
+      <c r="H22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="23">
+        <v>8</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="5"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="41"/>
-    </row>
-    <row r="23" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="13">
-        <v>2011</v>
+        <v>33</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="18"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="44"/>
+    </row>
+    <row r="23" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="17">
+        <v>2099</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="13">
-        <v>6</v>
-      </c>
-      <c r="F23" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2</v>
+      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="17" t="s">
         <v>17</v>
       </c>
@@ -1953,164 +2003,180 @@
         <v>44</v>
       </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="17">
-        <v>16</v>
-      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="11" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="N23" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="N23" s="11"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="23">
-        <v>1003</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="19">
-        <v>4</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="23" t="s">
+      <c r="B24" s="13">
+        <v>1080</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="23">
-        <v>8</v>
+      <c r="H24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="17">
+        <v>16</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="44"/>
+        <v>36</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="17">
-        <v>2099</v>
+      <c r="A25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="13">
+        <v>3023</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="14">
-        <v>2</v>
-      </c>
-      <c r="F25" s="14"/>
+      <c r="E25" s="13">
+        <v>6</v>
+      </c>
+      <c r="F25" s="13"/>
       <c r="G25" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="17"/>
+      <c r="J25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="17">
+        <v>16</v>
+      </c>
       <c r="L25" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>99</v>
+        <v>14</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="13">
+        <v>6</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="17">
+        <v>16</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="13">
-        <v>1080</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="17">
-        <v>16</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="B27" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="13">
+        <v>6</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="J27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="17">
+        <v>16</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="13">
-        <v>3023</v>
+        <v>3052</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>10</v>
@@ -2127,29 +2193,34 @@
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K28" s="17">
         <v>16</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>55</v>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="41"/>
+    </row>
+    <row r="29" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
+        <v>92</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>31</v>
@@ -2172,26 +2243,26 @@
         <v>16</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>129</v>
+      <c r="A30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="13">
+        <v>4071</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E30" s="13">
         <v>6</v>
@@ -2205,35 +2276,35 @@
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="11" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="K30" s="17">
         <v>16</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>89</v>
+        <v>14</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="13">
-        <v>3052</v>
+        <v>1080</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="17" t="s">
@@ -2243,45 +2314,44 @@
         <v>44</v>
       </c>
       <c r="I31" s="17"/>
-      <c r="J31" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="J31" s="11"/>
       <c r="K31" s="17">
         <v>16</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>96</v>
+        <v>36</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="N31" s="11"/>
       <c r="O31" s="5"/>
+      <c r="P31" s="42"/>
       <c r="Q31" s="41"/>
       <c r="R31" s="42"/>
       <c r="S31" s="42"/>
       <c r="T31" s="42"/>
       <c r="U31" s="41"/>
     </row>
-    <row r="32" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>31</v>
+      <c r="B32" s="13">
+        <v>4011</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="13">
         <v>6</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>44</v>
@@ -2296,31 +2366,31 @@
       <c r="L32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M32" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="M32" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="13">
-        <v>4071</v>
+      <c r="B33" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E33" s="13">
         <v>6</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>44</v>
@@ -2333,98 +2403,116 @@
         <v>16</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>91</v>
+        <v>27</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:21" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1080</v>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="K34" s="17">
         <v>16</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="41"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="13">
+        <v>6</v>
+      </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="G35" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="I35" s="17"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="J35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="17">
+        <v>16</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+    </row>
+    <row r="36" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="13">
-        <v>4011</v>
+        <v>4812</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="13">
-        <v>6</v>
-      </c>
-      <c r="F36" s="13"/>
+      <c r="E36" s="14">
+        <v>6</v>
+      </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="17" t="s">
         <v>29</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="17"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="11" t="s">
         <v>30</v>
       </c>
@@ -2434,70 +2522,50 @@
       <c r="L36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M36" s="12" t="s">
-        <v>100</v>
+      <c r="M36" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="N36" s="11"/>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="13">
-        <v>6</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K37" s="17">
-        <v>16</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>81</v>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+    </row>
+    <row r="38" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="17">
+        <v>1002</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="E38" s="13">
         <v>6</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>44</v>
@@ -2512,77 +2580,77 @@
       <c r="L38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>101</v>
+      <c r="M38" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>82</v>
+    <row r="39" spans="1:15" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="60">
+        <v>1211</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="E39" s="13">
         <v>6</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K39" s="17">
         <v>16</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-    </row>
-    <row r="40" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="B40" s="13">
-        <v>4812</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="14">
-        <v>6</v>
-      </c>
-      <c r="F40" s="14"/>
+        <v>1015</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="13">
+        <v>6</v>
+      </c>
+      <c r="F40" s="13"/>
       <c r="G40" s="17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="11" t="s">
-        <v>30</v>
+      <c r="I40" s="17"/>
+      <c r="J40" s="31" t="s">
+        <v>12</v>
       </c>
       <c r="K40" s="17">
         <v>16</v>
@@ -2590,57 +2658,99 @@
       <c r="L40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-    </row>
-    <row r="41" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-    </row>
-    <row r="43" spans="1:21" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="17">
-        <v>1002</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>83</v>
+      <c r="M40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1016</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="13">
+        <v>6</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="17">
+        <v>16</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1017</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="13">
+        <v>6</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="17">
+        <v>16</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2042</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>10</v>
@@ -2657,37 +2767,37 @@
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K43" s="17">
         <v>16</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="N43" s="11"/>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="N43" s="12"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="1:15" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="60">
-        <v>1211</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>67</v>
+      <c r="B44" s="13">
+        <v>1070</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="13">
-        <v>6</v>
-      </c>
-      <c r="F44" s="13"/>
+      <c r="E44" s="14">
+        <v>6</v>
+      </c>
+      <c r="F44" s="14"/>
       <c r="G44" s="17" t="s">
         <v>16</v>
       </c>
@@ -2705,28 +2815,28 @@
         <v>14</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N44" s="12"/>
-      <c r="O44" s="16"/>
-    </row>
-    <row r="45" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="13">
-        <v>1015</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>37</v>
+        <v>1080</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="13">
-        <v>6</v>
-      </c>
-      <c r="F45" s="13"/>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14"/>
       <c r="G45" s="17" t="s">
         <v>16</v>
       </c>
@@ -2734,40 +2844,38 @@
         <v>44</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="31" t="s">
-        <v>12</v>
-      </c>
+      <c r="J45" s="11"/>
       <c r="K45" s="17">
         <v>16</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N45" s="12"/>
-      <c r="O45" s="16"/>
-    </row>
-    <row r="46" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>1016</v>
+        <v>2071</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="13">
-        <v>6</v>
-      </c>
-      <c r="F46" s="13"/>
+      <c r="E46" s="14">
+        <v>6</v>
+      </c>
+      <c r="F46" s="14"/>
       <c r="G46" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H46" s="17" t="s">
         <v>44</v>
@@ -2783,20 +2891,20 @@
         <v>14</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-    </row>
-    <row r="47" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="13">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>10</v>
@@ -2806,75 +2914,75 @@
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K47" s="17">
         <v>16</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-    </row>
-    <row r="48" spans="1:21" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="13">
-        <v>2042</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="B48" s="61">
+        <v>2031</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="13">
-        <v>6</v>
-      </c>
-      <c r="F48" s="13"/>
+      <c r="E48" s="14">
+        <v>6</v>
+      </c>
+      <c r="F48" s="14"/>
       <c r="G48" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H48" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I48" s="17"/>
       <c r="J48" s="11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K48" s="17">
         <v>16</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="N48" s="12"/>
-      <c r="O48" s="16"/>
-    </row>
-    <row r="49" spans="1:15" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="N48" s="11"/>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="13">
-        <v>1070</v>
+      <c r="B49" s="61">
+        <v>2164</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>10</v>
@@ -2884,14 +2992,14 @@
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H49" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K49" s="17">
         <v>16</v>
@@ -2899,81 +3007,105 @@
       <c r="L49" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M49" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N49" s="12"/>
+      <c r="M49" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N49" s="11"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="13">
-        <v>1080</v>
+      <c r="B50" s="61">
+        <v>1009</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I50" s="17"/>
-      <c r="J50" s="11"/>
+      <c r="J50" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="K50" s="17">
         <v>16</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M50" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="N50" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N50" s="11"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="14">
+        <v>3</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="16"/>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>56</v>
+      <c r="J51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="17">
+        <v>8</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N51" s="11"/>
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B52" s="13">
-        <v>2071</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>49</v>
+        <v>2099</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="17" t="s">
@@ -2983,38 +3115,32 @@
         <v>44</v>
       </c>
       <c r="I52" s="17"/>
-      <c r="J52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="17">
-        <v>16</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>53</v>
+        <v>99</v>
+      </c>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+    </row>
+    <row r="53" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B53" s="13">
-        <v>1002</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>69</v>
+        <v>1080</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="13">
-        <v>6</v>
-      </c>
-      <c r="F53" s="13"/>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14"/>
       <c r="G53" s="17" t="s">
         <v>17</v>
       </c>
@@ -3022,30 +3148,28 @@
         <v>44</v>
       </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="J53" s="11"/>
       <c r="K53" s="17">
         <v>16</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="N53" s="12"/>
-      <c r="O53" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
     </row>
     <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B54" s="61">
-        <v>2031</v>
+        <v>3195</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>10</v>
@@ -3055,7 +3179,7 @@
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>44</v>
@@ -3068,10 +3192,10 @@
         <v>16</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>121</v>
+        <v>14</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="N54" s="11"/>
       <c r="O54" s="5"/>
@@ -3080,21 +3204,21 @@
       <c r="A55" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="61">
-        <v>2164</v>
+      <c r="B55" s="61" t="s">
+        <v>125</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E55" s="14">
         <v>6</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>44</v>
@@ -3110,20 +3234,20 @@
         <v>14</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N55" s="11"/>
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="61">
-        <v>1009</v>
+        <v>3098</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>10</v>
@@ -3133,14 +3257,14 @@
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H56" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K56" s="17">
         <v>16</v>
@@ -3149,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N56" s="11"/>
       <c r="O56" s="5"/>
@@ -3159,92 +3283,98 @@
         <v>51</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E57" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="11" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K57" s="17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L57" s="11" t="s">
         <v>14</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N57" s="11"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>52</v>
+    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="B58" s="13">
-        <v>2099</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>48</v>
+        <v>3087</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I58" s="17"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="11"/>
+      <c r="J58" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="17">
+        <v>16</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="M58" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-    </row>
-    <row r="59" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
         <v>52</v>
       </c>
       <c r="B59" s="13">
         <v>1080</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <v>0</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H59" s="17" t="s">
         <v>44</v>
@@ -3260,23 +3390,45 @@
       <c r="M59" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="A60" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="13">
+        <v>6</v>
+      </c>
       <c r="F60" s="13"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="G60" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="I60" s="17"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
+      <c r="J60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" s="17">
+        <v>16</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="N60" s="12"/>
       <c r="O60" s="16"/>
     </row>
@@ -3284,28 +3436,28 @@
       <c r="A61" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="61">
-        <v>3195</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>54</v>
+      <c r="B61" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="14">
-        <v>6</v>
-      </c>
-      <c r="F61" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="E61" s="13">
+        <v>6</v>
+      </c>
+      <c r="F61" s="13"/>
       <c r="G61" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H61" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K61" s="17">
         <v>16</v>
@@ -3313,38 +3465,38 @@
       <c r="L61" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="N61" s="11"/>
-      <c r="O61" s="5"/>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M61" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N61" s="12"/>
+      <c r="O61" s="16"/>
+    </row>
+    <row r="62" spans="1:15" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="61" t="s">
-        <v>125</v>
+      <c r="B62" s="13">
+        <v>4885</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E62" s="14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H62" s="17" t="s">
         <v>44</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K62" s="17">
         <v>16</v>
@@ -3353,361 +3505,56 @@
         <v>14</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="N62" s="11"/>
-      <c r="O62" s="5"/>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="61">
-        <v>3098</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="14">
-        <v>6</v>
-      </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I63" s="17"/>
-      <c r="J63" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K63" s="17">
-        <v>16</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="N63" s="11"/>
-      <c r="O63" s="5"/>
-    </row>
-    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="14">
-        <v>6</v>
-      </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I64" s="17"/>
-      <c r="J64" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64" s="17">
-        <v>16</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N64" s="11"/>
-      <c r="O64" s="5"/>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="13">
-        <v>3087</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="14">
-        <v>6</v>
-      </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K65" s="17">
-        <v>16</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="13">
-        <v>1080</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="13">
-        <v>0</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="17">
-        <v>16</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M66" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-    </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="16"/>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="13">
-        <v>6</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K68" s="17">
-        <v>16</v>
-      </c>
-      <c r="L68" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="N68" s="12"/>
-      <c r="O68" s="16"/>
-    </row>
-    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="13">
-        <v>6</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K69" s="17">
-        <v>16</v>
-      </c>
-      <c r="L69" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M69" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="N69" s="12"/>
-      <c r="O69" s="16"/>
-    </row>
-    <row r="70" spans="1:15" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="13">
-        <v>4885</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="14">
-        <v>12</v>
-      </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" s="17"/>
-      <c r="J70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70" s="17">
-        <v>16</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-    </row>
-    <row r="71" spans="1:15" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
+      <c r="O62" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A9:O9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{8EF2456A-C4DF-4892-BEE3-B1E5B32C7E17}">
       <formula1>"Core/Elective"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11 J68:J71 J47:J49 J52 J23 J32:J33 I9 I72:I76 J15:J21 J25:J30 J35:J41 J56:J64" xr:uid="{22E9EB7B-6819-433A-8F9B-CC0FF69AD9EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10 J60:J62 J42:J44 J46 J21 J29:J30 I63:I67 J14:J19 J32:J36 J23:J27 J50:J57" xr:uid="{22E9EB7B-6819-433A-8F9B-CC0FF69AD9EE}">
       <formula1>"lecture, lecture and tutorial/lab, lecture and tutorial and lab, work placement, training session"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I23:I24 H72:H76 I14:I21 I26:I41" xr:uid="{04EC056D-5FDE-4D51-9201-ADF7C515CF9C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10 I21:I22 H63:H67 I13:I19 I24:I36" xr:uid="{04EC056D-5FDE-4D51-9201-ADF7C515CF9C}">
       <formula1>"1 of 1, 1 of 2, 2 of 2, n/a"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G9 G11:G41 G43:G64 G67:G76" xr:uid="{A24688E6-83C7-471E-BA4C-D71BF153089D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G8 G10:G36 G38:G57 G60:G67" xr:uid="{A24688E6-83C7-471E-BA4C-D71BF153089D}">
       <formula1>"Preparatory, Junior, Freshmen, Sophomore, S/J, Senior"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40:F41 E72:F76 E9:F9 E11:F20 E22:F28 E30:F38 E43:F53 E55:F60 E63:F66" xr:uid="{877FDAA5-68E2-4B67-AE86-E78B228AAFE0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36:F36 E63:F67 E49:F53 E56:F59 E10:F18 E27:F34 E20:F25 E38:F47" xr:uid="{877FDAA5-68E2-4B67-AE86-E78B228AAFE0}">
       <formula1>"0,1,1.5,2,3,4,5,6 "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44 D11 D23 D37:D41 D32 D14:D21 D25:D29 D46:D76" xr:uid="{2454FD97-A3E3-44CF-83A1-081A758B22B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39 D10 D21 D33:D36 D29 D13:D19 D23:D26 D41:D67" xr:uid="{2454FD97-A3E3-44CF-83A1-081A758B22B9}">
       <formula1>"core, elective"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43 D45 D12:D13 D22 D24 D3:D9 D30:D36" xr:uid="{73732252-8B48-4F4A-A907-37CF3868EACB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38 D40 D11:D12 D20 D22 D3:D8 D27:D32" xr:uid="{73732252-8B48-4F4A-A907-37CF3868EACB}">
       <formula1>"core,elective"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H41 H43:H71" xr:uid="{F205B620-EC24-47CB-9AA4-87AAC32A4899}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H36 H38:H62" xr:uid="{F205B620-EC24-47CB-9AA4-87AAC32A4899}">
       <formula1>"Fall, Spring"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E70:F71" xr:uid="{E2DC537A-CD72-419F-BD05-92764F9FD6E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E62:F62" xr:uid="{E2DC537A-CD72-419F-BD05-92764F9FD6E3}">
       <formula1>"0,1,1.5,2,3,4,5,6,12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I23 I14:I21 I26:I41" xr:uid="{28966060-942E-49AA-8A05-6C0F1F31619C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10 I21 I13:I19 I24:I36" xr:uid="{28966060-942E-49AA-8A05-6C0F1F31619C}">
       <formula1>"Science, Arts"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J9" xr:uid="{B44408F0-0910-4BB6-BA7D-43D2CD10AD38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J8" xr:uid="{B44408F0-0910-4BB6-BA7D-43D2CD10AD38}">
       <formula1>"14"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H9" xr:uid="{F67E3D8D-D619-43A3-80D3-A0CF74364AC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H8" xr:uid="{F67E3D8D-D619-43A3-80D3-A0CF74364AC0}">
       <formula1>"Fall,Spring"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G65:G66" xr:uid="{8DE593E5-8BE6-4ACF-B457-5233E791C22D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G58:G59" xr:uid="{8DE593E5-8BE6-4ACF-B457-5233E791C22D}">
       <formula1>"Preparatory, Junior, Freshmen, Sophomore, S/J"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sources/Course Memo_Spring 2023_ver05_10.01.23_updated by Serik M.xlsx
+++ b/sources/Course Memo_Spring 2023_ver05_10.01.23_updated by Serik M.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneku16\ScheduleGenerator\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCA-schedule-generator\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5D8A7-323C-49D6-9FAB-5EA3E2F73A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBCE454-04E9-478E-BF71-02A53210CBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{2966C313-9ED0-4D1C-A2BE-A20E4734B1E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2966C313-9ED0-4D1C-A2BE-A20E4734B1E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring 2023" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="133">
   <si>
     <t>Course Code</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Kiran Bhimani</t>
+  </si>
+  <si>
+    <t>training session</t>
   </si>
 </sst>
 </file>
@@ -790,7 +793,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -806,9 +809,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -846,7 +849,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -952,7 +955,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1105,10 +1108,10 @@
   <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1763,9 @@
         <v>44</v>
       </c>
       <c r="I17" s="23"/>
-      <c r="J17" s="18"/>
+      <c r="J17" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="K17" s="17">
         <v>16</v>
       </c>
@@ -2038,7 +2043,9 @@
         <v>44</v>
       </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="K24" s="17">
         <v>16</v>
       </c>
@@ -2314,7 +2321,9 @@
         <v>44</v>
       </c>
       <c r="I31" s="17"/>
-      <c r="J31" s="11"/>
+      <c r="J31" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="K31" s="17">
         <v>16</v>
       </c>
@@ -2844,7 +2853,9 @@
         <v>44</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="11"/>
+      <c r="J45" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="K45" s="17">
         <v>16</v>
       </c>
@@ -3117,7 +3128,9 @@
       <c r="I52" s="17"/>
       <c r="J52" s="11"/>
       <c r="K52" s="17"/>
-      <c r="L52" s="11"/>
+      <c r="L52" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="M52" s="12" t="s">
         <v>99</v>
       </c>
@@ -3148,7 +3161,9 @@
         <v>44</v>
       </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="11"/>
+      <c r="J53" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="K53" s="17">
         <v>16</v>
       </c>
@@ -3380,7 +3395,9 @@
         <v>44</v>
       </c>
       <c r="I59" s="17"/>
-      <c r="J59" s="11"/>
+      <c r="J59" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="K59" s="17">
         <v>16</v>
       </c>

--- a/sources/Course Memo_Spring 2023_ver05_10.01.23_updated by Serik M.xlsx
+++ b/sources/Course Memo_Spring 2023_ver05_10.01.23_updated by Serik M.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCA-schedule-generator\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneku16\learnings\UCA-schedule-generator\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBCE454-04E9-478E-BF71-02A53210CBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE075A5-E9C6-4410-9A94-85F10F1FD1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2966C313-9ED0-4D1C-A2BE-A20E4734B1E8}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{2966C313-9ED0-4D1C-A2BE-A20E4734B1E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring 2023" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="134">
   <si>
     <t>Course Code</t>
   </si>
@@ -213,15 +213,6 @@
     <t>Programming II</t>
   </si>
   <si>
-    <t>Database Management Systems </t>
-  </si>
-  <si>
-    <t>Digital Logic &amp; Design </t>
-  </si>
-  <si>
-    <t>Data Structure and Algorithms   </t>
-  </si>
-  <si>
     <t>Statistics II</t>
   </si>
   <si>
@@ -436,6 +427,18 @@
   </si>
   <si>
     <t>training session</t>
+  </si>
+  <si>
+    <t>Data Structure and Algorithms</t>
+  </si>
+  <si>
+    <t>Database Management Systems</t>
+  </si>
+  <si>
+    <t>Digital Logic &amp; Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic Writing: Research, Fiction and Nonfiction    </t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,9 +812,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -849,7 +852,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -955,7 +958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1108,10 +1111,10 @@
   <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1208,7 @@
         <v>9002</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>10</v>
@@ -1233,10 +1236,10 @@
         <v>13</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O3" s="16"/>
     </row>
@@ -1276,10 +1279,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O4" s="16"/>
     </row>
@@ -1319,7 +1322,7 @@
         <v>25</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N5" s="30"/>
       <c r="O5" s="51"/>
@@ -1360,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N6" s="30"/>
       <c r="O6" s="51"/>
@@ -1401,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="16"/>
@@ -1442,7 +1445,7 @@
         <v>26</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="16"/>
@@ -1474,7 +1477,7 @@
         <v>1002</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>10</v>
@@ -1500,7 +1503,7 @@
         <v>27</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="5"/>
@@ -1539,7 +1542,7 @@
         <v>27</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="16"/>
@@ -1578,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="16"/>
@@ -1617,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="21"/>
@@ -1656,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
@@ -1695,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -1734,7 +1737,7 @@
         <v>14</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="16"/>
@@ -1764,7 +1767,7 @@
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K17" s="17">
         <v>16</v>
@@ -1773,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="16"/>
@@ -1786,7 +1789,7 @@
         <v>3082</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>10</v>
@@ -1812,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="5"/>
@@ -1825,7 +1828,7 @@
         <v>2021</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>10</v>
@@ -1851,7 +1854,7 @@
         <v>27</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="5"/>
@@ -1864,7 +1867,7 @@
         <v>2041</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>10</v>
@@ -1890,7 +1893,7 @@
         <v>27</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="5"/>
@@ -1908,7 +1911,7 @@
         <v>2011</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>31</v>
@@ -1934,7 +1937,7 @@
         <v>27</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="5"/>
@@ -1947,7 +1950,7 @@
         <v>1003</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>10</v>
@@ -1973,7 +1976,7 @@
         <v>33</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N22" s="18"/>
       <c r="O22" s="37"/>
@@ -2011,10 +2014,10 @@
       <c r="J23" s="11"/>
       <c r="K23" s="17"/>
       <c r="L23" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="5"/>
@@ -2044,7 +2047,7 @@
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K24" s="17">
         <v>16</v>
@@ -2053,7 +2056,7 @@
         <v>36</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="5"/>
@@ -2066,7 +2069,7 @@
         <v>3023</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>10</v>
@@ -2092,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="5"/>
@@ -2102,10 +2105,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>31</v>
@@ -2131,7 +2134,7 @@
         <v>27</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -2141,10 +2144,10 @@
         <v>52</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>31</v>
@@ -2161,7 +2164,7 @@
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K27" s="17">
         <v>16</v>
@@ -2170,7 +2173,7 @@
         <v>27</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="5"/>
@@ -2183,7 +2186,7 @@
         <v>3052</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>10</v>
@@ -2209,7 +2212,7 @@
         <v>27</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="5"/>
@@ -2224,10 +2227,10 @@
         <v>50</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>31</v>
@@ -2253,7 +2256,7 @@
         <v>14</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N29" s="32"/>
       <c r="O29" s="32"/>
@@ -2266,7 +2269,7 @@
         <v>4071</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>10</v>
@@ -2292,7 +2295,7 @@
         <v>14</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="5"/>
@@ -2322,7 +2325,7 @@
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K31" s="17">
         <v>16</v>
@@ -2331,7 +2334,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N31" s="11"/>
       <c r="O31" s="5"/>
@@ -2350,7 +2353,7 @@
         <v>4011</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>10</v>
@@ -2376,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N32" s="11"/>
       <c r="O32" s="5"/>
@@ -2386,10 +2389,10 @@
         <v>50</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>31</v>
@@ -2415,7 +2418,7 @@
         <v>27</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="5"/>
@@ -2425,10 +2428,10 @@
         <v>50</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>31</v>
@@ -2454,7 +2457,7 @@
         <v>27</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N34" s="11"/>
       <c r="O34" s="5"/>
@@ -2464,10 +2467,10 @@
         <v>50</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>31</v>
@@ -2493,7 +2496,7 @@
         <v>27</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
@@ -2506,7 +2509,7 @@
         <v>4812</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>10</v>
@@ -2532,7 +2535,7 @@
         <v>14</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
@@ -2564,7 +2567,7 @@
         <v>1002</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>10</v>
@@ -2590,7 +2593,7 @@
         <v>27</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="5"/>
@@ -2603,7 +2606,7 @@
         <v>1211</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>10</v>
@@ -2629,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="16"/>
@@ -2668,7 +2671,7 @@
         <v>14</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="16"/>
@@ -2707,7 +2710,7 @@
         <v>14</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
@@ -2746,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
@@ -2785,7 +2788,7 @@
         <v>14</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="16"/>
@@ -2798,7 +2801,7 @@
         <v>1070</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>10</v>
@@ -2824,7 +2827,7 @@
         <v>14</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="5"/>
@@ -2854,7 +2857,7 @@
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K45" s="17">
         <v>16</v>
@@ -2863,7 +2866,7 @@
         <v>36</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="5"/>
@@ -2902,7 +2905,7 @@
         <v>14</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N46" s="34"/>
       <c r="O46" s="34"/>
@@ -2915,7 +2918,7 @@
         <v>1002</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>10</v>
@@ -2941,7 +2944,7 @@
         <v>27</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="16"/>
@@ -2954,7 +2957,7 @@
         <v>2031</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>10</v>
@@ -2980,7 +2983,7 @@
         <v>27</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N48" s="11"/>
       <c r="O48" s="5"/>
@@ -2993,7 +2996,7 @@
         <v>2164</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>10</v>
@@ -3019,7 +3022,7 @@
         <v>14</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N49" s="11"/>
       <c r="O49" s="5"/>
@@ -3032,7 +3035,7 @@
         <v>1009</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>10</v>
@@ -3058,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N50" s="11"/>
       <c r="O50" s="5"/>
@@ -3068,10 +3071,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>31</v>
@@ -3097,7 +3100,7 @@
         <v>14</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N51" s="11"/>
       <c r="O51" s="5"/>
@@ -3132,7 +3135,7 @@
         <v>36</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
@@ -3162,7 +3165,7 @@
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K53" s="17">
         <v>16</v>
@@ -3171,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
@@ -3210,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N54" s="11"/>
       <c r="O54" s="5"/>
@@ -3220,10 +3223,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>31</v>
@@ -3249,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N55" s="11"/>
       <c r="O55" s="5"/>
@@ -3262,7 +3265,7 @@
         <v>3098</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>10</v>
@@ -3288,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N56" s="11"/>
       <c r="O56" s="5"/>
@@ -3298,10 +3301,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>31</v>
@@ -3327,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N57" s="11"/>
       <c r="O57" s="5"/>
@@ -3340,7 +3343,7 @@
         <v>3087</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>10</v>
@@ -3366,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N58" s="34"/>
       <c r="O58" s="34"/>
@@ -3396,7 +3399,7 @@
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K59" s="17">
         <v>16</v>
@@ -3405,7 +3408,7 @@
         <v>36</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N59" s="34"/>
       <c r="O59" s="34"/>
@@ -3415,10 +3418,10 @@
         <v>53</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>31</v>
@@ -3444,7 +3447,7 @@
         <v>14</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="16"/>
@@ -3454,10 +3457,10 @@
         <v>51</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>31</v>
@@ -3483,7 +3486,7 @@
         <v>14</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N61" s="12"/>
       <c r="O61" s="16"/>
@@ -3496,7 +3499,7 @@
         <v>4885</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>10</v>
@@ -3522,7 +3525,7 @@
         <v>14</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
